--- a/va_facility_data_2025-02-20/Sussex VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sussex%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sussex VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sussex%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R389a51b9ff7e49c399c938655b685bfc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6bac243446a34ce689f9b1185138fd9e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R421c9c6d40a741d9a187842008e8417e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R96d9635f22ca479cb96063bc0163fa61"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfa9409660be74ab7abbdf9657b09eb9f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcfb7478272ac4f97a7435e501c1dc353"/>
   </x:sheets>
 </x:workbook>
 </file>
